--- a/config_Release/act_042_xshb_config.xlsx
+++ b/config_Release/act_042_xshb_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="13" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>index|序列</t>
   </si>
@@ -52,15 +57,6 @@
     <t>is_on|显示开关</t>
   </si>
   <si>
-    <t>0.5元奖励金</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>携带金币20万</t>
-  </si>
-  <si>
     <t>actp_own_task_p_show_not</t>
   </si>
   <si>
@@ -146,19 +142,87 @@
   </si>
   <si>
     <t>VIP4</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元奖励金</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带金币2万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5元奖励金</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>携带金币2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xshb_cjj_xdjb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +233,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,153 +241,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,194 +280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -530,257 +289,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,16 +340,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -841,64 +358,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1156,22 +644,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F14" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="34.375" customWidth="1"/>
@@ -1188,7 +676,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1219,27 +707,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+      <c r="B2" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4">
         <v>1000664</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4">
         <v>6</v>
@@ -1247,196 +735,227 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="21">
+        <v>50</v>
       </c>
       <c r="D3" s="4">
-        <v>1000663</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>30045</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
-        <v>1000662</v>
+        <v>1000663</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>1000661</v>
+        <v>1000662</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+    <row r="6" spans="1:12" s="1" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>1000660</v>
+        <v>1000661</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
+    <row r="7" spans="1:12" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>1000659</v>
+        <v>1000660</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
+    <row r="8" spans="1:12" s="1" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000659</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1450,7 +969,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
+    <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1464,7 +983,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1477,12 +996,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="1:12">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="1:12">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="F13" s="13"/>
@@ -1493,7 +1012,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="1:12">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
@@ -1506,7 +1025,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
@@ -1519,9 +1038,9 @@
       <c r="K15" s="15"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:12">
       <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
@@ -1571,7 +1090,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:12">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1580,8 +1099,8 @@
       <c r="G20" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_042_xshb_config.xlsx
+++ b/config_Release/act_042_xshb_config.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -880,7 +880,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1">
@@ -916,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
@@ -952,7 +952,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1">
